--- a/biology/Zoologie/Exapion_compactum/Exapion_compactum.xlsx
+++ b/biology/Zoologie/Exapion_compactum/Exapion_compactum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exapion compactum est une espèce de coléoptères de la famille des Apionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les antennes sont rousses[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les antennes sont rousses.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans la région méditerranéenne de l'Europe, notamment la péninsule ibérique[4], le Trentin[5], en France[6] et en Belgique[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans la région méditerranéenne de l'Europe, notamment la péninsule ibérique, le Trentin, en France et en Belgique.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exapion compactum est un parasite des plantes Argyrolobium zanonii, Cytisus hirsutus, Cytisus scoparius, Cytisus striatus (en), Genista anglica, Genista cinerascens, Genista corsica, Genista ferox (sv), Genista germanica, Genista hispanica, Genista monspessulana, Genista pilosa, Genista tinctoria, Genista umbellata (es), Genista versicolor[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exapion compactum est un parasite des plantes Argyrolobium zanonii, Cytisus hirsutus, Cytisus scoparius, Cytisus striatus (en), Genista anglica, Genista cinerascens, Genista corsica, Genista ferox (sv), Genista germanica, Genista hispanica, Genista monspessulana, Genista pilosa, Genista tinctoria, Genista umbellata (es), Genista versicolor.
 </t>
         </is>
       </c>
